--- a/data/trans_orig/P43E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A057DA8-BFE7-4C8F-96A1-1138790BE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3799B0C6-F39D-4F67-B6F2-E2A841DB76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3745795-414B-4F3D-99B0-4FCB14FB26CD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97D94E56-C073-4BB9-97E4-3515647CF022}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="176">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>21,46%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>25,49%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>21,87%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>19,19%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>24,31%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,37 +214,31 @@
     <t>21,58%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>24,79%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>75,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -256,157 +250,163 @@
     <t>24,46%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>75,54%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>14,26%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>85,74%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -415,151 +415,157 @@
     <t>15,55%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>79,97%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>12,92%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>87,08%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>10,29%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>89,71%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
 </sst>
 </file>
@@ -971,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C951FA-3BEC-4612-84D2-E994F9319738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C6D68-82FD-4304-957F-92838847CAF9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2291,10 +2297,10 @@
         <v>63</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>461</v>
@@ -2306,10 +2312,10 @@
         <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2343,13 @@
         <v>1731609</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="M29" s="7">
         <v>1606</v>
@@ -2352,13 +2358,13 @@
         <v>1731609</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,7 +2418,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378F4F4F-A860-42C4-AAE1-F526966AA86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A954C8-DDDB-4448-BD05-874E9FDE56F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2453,7 +2459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2573,13 +2579,13 @@
         <v>48847</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2588,13 +2594,13 @@
         <v>48847</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2628,13 @@
         <v>150821</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>147</v>
@@ -2637,13 +2643,13 @@
         <v>150821</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2728,13 @@
         <v>55528</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -2737,13 +2743,13 @@
         <v>55528</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2777,13 @@
         <v>324415</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -2786,13 +2792,13 @@
         <v>324415</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2877,13 @@
         <v>12549</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2886,13 +2892,13 @@
         <v>12549</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2926,13 @@
         <v>235613</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -2935,13 +2941,13 @@
         <v>235613</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3026,13 @@
         <v>31409</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3035,13 +3041,13 @@
         <v>31409</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3075,13 @@
         <v>233829</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -3084,13 +3090,13 @@
         <v>233829</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3175,13 @@
         <v>9860</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3184,13 +3190,13 @@
         <v>9860</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3224,13 @@
         <v>74700</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3233,13 +3239,13 @@
         <v>74700</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3324,13 @@
         <v>15865</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3333,13 +3339,13 @@
         <v>15865</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3373,13 @@
         <v>45936</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -3382,13 +3388,13 @@
         <v>45936</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3473,13 @@
         <v>90594</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3482,13 +3488,13 @@
         <v>90594</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3522,13 @@
         <v>320425</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>299</v>
@@ -3531,13 +3537,13 @@
         <v>320425</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3622,13 @@
         <v>88387</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -3631,13 +3637,13 @@
         <v>88387</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,10 +3671,10 @@
         <v>414896</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>116</v>
@@ -3680,10 +3686,10 @@
         <v>414896</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>116</v>
@@ -3889,7 +3895,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1CAC75-CC5F-4FCE-9CF9-DBAF93206C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79CA5C1-25B7-43BA-ABF7-6F3A3D39F54E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4053,10 +4059,10 @@
         <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4068,10 +4074,10 @@
         <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4105,13 @@
         <v>135064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -4114,13 +4120,13 @@
         <v>135064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4205,13 @@
         <v>65084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -4214,13 +4220,13 @@
         <v>65084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4254,13 @@
         <v>185414</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>244</v>
@@ -4263,13 +4269,13 @@
         <v>185414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4354,13 @@
         <v>28941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4363,13 +4369,13 @@
         <v>28941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4403,13 @@
         <v>137884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>215</v>
@@ -4412,13 +4418,13 @@
         <v>137884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4503,13 @@
         <v>41244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4512,13 +4518,13 @@
         <v>41244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4552,13 @@
         <v>186057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -4561,13 +4567,13 @@
         <v>186057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4652,13 @@
         <v>16833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4661,13 +4667,13 @@
         <v>16833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4701,13 @@
         <v>48047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4710,13 +4716,13 @@
         <v>48047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4801,13 @@
         <v>16967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4810,13 +4816,13 @@
         <v>16967</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4850,13 @@
         <v>75420</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -4859,13 +4865,13 @@
         <v>75420</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4950,13 @@
         <v>154011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
@@ -4959,13 +4965,13 @@
         <v>154011</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4999,13 @@
         <v>207530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>302</v>
@@ -5008,13 +5014,13 @@
         <v>207530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5099,13 @@
         <v>39603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -5108,13 +5114,13 @@
         <v>39603</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5148,13 @@
         <v>249663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>316</v>
@@ -5157,13 +5163,13 @@
         <v>249663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5248,13 @@
         <v>387556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M28" s="7">
         <v>560</v>
@@ -5257,13 +5263,13 @@
         <v>387556</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5297,13 @@
         <v>1225078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>1858</v>
@@ -5306,13 +5312,13 @@
         <v>1225078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,7 +5372,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3799B0C6-F39D-4F67-B6F2-E2A841DB76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0A172F-1D38-42E0-8CBA-446E2B674E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97D94E56-C073-4BB9-97E4-3515647CF022}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD47DDCD-C189-4FE5-A4E7-3DE29D346719}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>21,46%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>25,49%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>21,87%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>19,19%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>24,31%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,169 +214,175 @@
     <t>21,58%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>24,79%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>75,21%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2015 (Tasa respuesta: 31,05%)</t>
+    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>75,54%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>14,38%</t>
+    <t>14,3%</t>
   </si>
   <si>
     <t>21,32%</t>
@@ -388,25 +394,25 @@
     <t>78,68%</t>
   </si>
   <si>
-    <t>85,62%</t>
+    <t>85,7%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -977,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C6D68-82FD-4304-957F-92838847CAF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1CF8C-25D8-41FC-8098-8453DDFFA4A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2297,10 +2303,10 @@
         <v>63</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>461</v>
@@ -2312,10 +2318,10 @@
         <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2349,13 @@
         <v>1731609</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>1606</v>
@@ -2358,13 +2364,13 @@
         <v>1731609</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2424,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A954C8-DDDB-4448-BD05-874E9FDE56F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3BF7DD-7B12-44A9-B7B5-C03054DFCA65}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2459,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2579,13 +2585,13 @@
         <v>48847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2594,13 +2600,13 @@
         <v>48847</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2634,13 @@
         <v>150821</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>147</v>
@@ -2643,13 +2649,13 @@
         <v>150821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2734,13 @@
         <v>55528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -2743,13 +2749,13 @@
         <v>55528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2783,13 @@
         <v>324415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -2792,13 +2798,13 @@
         <v>324415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2883,13 @@
         <v>12549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2892,13 +2898,13 @@
         <v>12549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2932,13 @@
         <v>235613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -2941,13 +2947,13 @@
         <v>235613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3032,13 @@
         <v>31409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3041,13 +3047,13 @@
         <v>31409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3081,13 @@
         <v>233829</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -3090,13 +3096,13 @@
         <v>233829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3181,13 @@
         <v>9860</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3190,13 +3196,13 @@
         <v>9860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3230,13 @@
         <v>74700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3239,13 +3245,13 @@
         <v>74700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3330,13 @@
         <v>15865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3339,13 +3345,13 @@
         <v>15865</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3379,13 @@
         <v>45936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -3388,13 +3394,13 @@
         <v>45936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3479,13 @@
         <v>90594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3488,13 +3494,13 @@
         <v>90594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3528,13 @@
         <v>320425</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>299</v>
@@ -3537,13 +3543,13 @@
         <v>320425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3628,13 @@
         <v>88387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -3637,13 +3643,13 @@
         <v>88387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3677,13 @@
         <v>414896</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>386</v>
@@ -3686,13 +3692,13 @@
         <v>414896</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3777,13 @@
         <v>353039</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>329</v>
@@ -3786,13 +3792,13 @@
         <v>353039</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3826,13 @@
         <v>1800635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>1711</v>
@@ -3835,13 +3841,13 @@
         <v>1800635</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,7 +3901,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79CA5C1-25B7-43BA-ABF7-6F3A3D39F54E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856D1549-F732-4C43-B494-A0C392EDDEBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3936,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4056,13 +4062,13 @@
         <v>24873</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4071,13 +4077,13 @@
         <v>24873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4111,13 @@
         <v>135064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -4120,13 +4126,13 @@
         <v>135064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4211,13 @@
         <v>65084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -4220,13 +4226,13 @@
         <v>65084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4260,13 @@
         <v>185414</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>244</v>
@@ -4269,13 +4275,13 @@
         <v>185414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4360,13 @@
         <v>28941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4369,13 +4375,13 @@
         <v>28941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4409,13 @@
         <v>137884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>215</v>
@@ -4418,13 +4424,13 @@
         <v>137884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4509,13 @@
         <v>41244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4518,13 +4524,13 @@
         <v>41244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4558,13 @@
         <v>186057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -4567,13 +4573,13 @@
         <v>186057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4658,13 @@
         <v>16833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4667,13 +4673,13 @@
         <v>16833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4707,13 @@
         <v>48047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4716,13 +4722,13 @@
         <v>48047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4807,13 @@
         <v>16967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4816,13 +4822,13 @@
         <v>16967</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4856,13 @@
         <v>75420</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -4865,13 +4871,13 @@
         <v>75420</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4956,13 @@
         <v>154011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
@@ -4965,13 +4971,13 @@
         <v>154011</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5005,13 @@
         <v>207530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>302</v>
@@ -5014,13 +5020,13 @@
         <v>207530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5105,13 @@
         <v>39603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -5114,13 +5120,13 @@
         <v>39603</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5154,13 @@
         <v>249663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>316</v>
@@ -5163,13 +5169,13 @@
         <v>249663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5254,13 @@
         <v>387556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>560</v>
@@ -5263,13 +5269,13 @@
         <v>387556</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5303,13 @@
         <v>1225078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1858</v>
@@ -5312,13 +5318,13 @@
         <v>1225078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5378,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0A172F-1D38-42E0-8CBA-446E2B674E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F204FFF7-ACB2-4D4D-AB82-7DE8ED6819A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD47DDCD-C189-4FE5-A4E7-3DE29D346719}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{602A22BA-96E8-4595-A274-1829CB3B4885}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="174">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>21,46%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>25,49%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>21,87%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>19,19%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>24,31%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,205 +214,199 @@
     <t>21,58%</t>
   </si>
   <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>83,61%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>85,2%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -421,157 +415,151 @@
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>12,92%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>87,08%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,29%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>89,71%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
 </sst>
 </file>
@@ -983,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1CF8C-25D8-41FC-8098-8453DDFFA4A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F197B55A-1848-497F-9D1D-FCC003D836B2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2448,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3BF7DD-7B12-44A9-B7B5-C03054DFCA65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9C0832-D460-42AF-8B73-D2193C108CA6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3634,7 +3622,7 @@
         <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -3649,7 +3637,7 @@
         <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3665,13 @@
         <v>414896</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>386</v>
@@ -3692,13 +3680,13 @@
         <v>414896</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3765,13 @@
         <v>353039</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>329</v>
@@ -3792,13 +3780,13 @@
         <v>353039</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3814,13 @@
         <v>1800635</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>1711</v>
@@ -3841,13 +3829,13 @@
         <v>1800635</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856D1549-F732-4C43-B494-A0C392EDDEBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20430FA2-15B5-49BF-BA63-56ABDA8FFDF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,7 +3930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4050,13 @@
         <v>24873</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4077,13 +4065,13 @@
         <v>24873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4099,13 @@
         <v>135064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -4126,13 +4114,13 @@
         <v>135064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4199,13 @@
         <v>65084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -4226,13 +4214,13 @@
         <v>65084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4248,13 @@
         <v>185414</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>244</v>
@@ -4275,13 +4263,13 @@
         <v>185414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4348,13 @@
         <v>28941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4375,13 +4363,13 @@
         <v>28941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4397,13 @@
         <v>137884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>215</v>
@@ -4424,13 +4412,13 @@
         <v>137884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4497,13 @@
         <v>41244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4524,13 +4512,13 @@
         <v>41244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4546,13 @@
         <v>186057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -4573,13 +4561,13 @@
         <v>186057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4646,13 @@
         <v>16833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4673,13 +4661,13 @@
         <v>16833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4695,13 @@
         <v>48047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4722,13 +4710,13 @@
         <v>48047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4795,13 @@
         <v>16967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4822,13 +4810,13 @@
         <v>16967</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4844,13 @@
         <v>75420</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -4871,13 +4859,13 @@
         <v>75420</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4944,13 @@
         <v>154011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
@@ -4971,13 +4959,13 @@
         <v>154011</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +4993,13 @@
         <v>207530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>302</v>
@@ -5020,13 +5008,13 @@
         <v>207530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5093,13 @@
         <v>39603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -5120,13 +5108,13 @@
         <v>39603</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5142,13 @@
         <v>249663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>316</v>
@@ -5169,13 +5157,13 @@
         <v>249663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5242,13 @@
         <v>387556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>560</v>
@@ -5269,13 +5257,13 @@
         <v>387556</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5291,13 @@
         <v>1225078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>1858</v>
@@ -5318,13 +5306,13 @@
         <v>1225078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F204FFF7-ACB2-4D4D-AB82-7DE8ED6819A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB4829B-7869-4917-AB5C-5B5CC65F3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{602A22BA-96E8-4595-A274-1829CB3B4885}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F51DA948-1888-4D8E-A3D0-C07DA3F97E62}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="184">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -76,9 +76,30 @@
     <t>—%</t>
   </si>
   <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
     <t>Servicio sanitario público</t>
   </si>
   <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -100,9 +121,6 @@
     <t>83,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -127,22 +145,22 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -412,154 +430,166 @@
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F197B55A-1848-497F-9D1D-FCC003D836B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1B41E5-6D01-4584-B52D-073A13DA9BC8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1102,36 +1132,40 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I4" s="7">
+        <v>48118</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48118</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1147,30 +1181,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="I5" s="7">
+        <v>151640</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="N5" s="7">
+        <v>151640</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1192,35 +1230,39 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="I6" s="7">
+        <v>199758</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="N6" s="7">
+        <v>199758</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1245,13 +1287,13 @@
         <v>79394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -1260,19 +1302,19 @@
         <v>79394</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1294,13 +1336,13 @@
         <v>290593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>267</v>
@@ -1309,13 +1351,13 @@
         <v>290593</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,13 +1385,13 @@
         <v>369987</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>337</v>
@@ -1358,18 +1400,18 @@
         <v>369987</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1394,13 +1436,13 @@
         <v>48321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -1409,19 +1451,19 @@
         <v>48321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1443,13 +1485,13 @@
         <v>141213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -1458,13 +1500,13 @@
         <v>141213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1534,13 @@
         <v>189534</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>173</v>
@@ -1507,18 +1549,18 @@
         <v>189534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1537,40 +1579,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>114199</v>
+        <v>66080</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>114199</v>
+        <v>66080</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1586,34 +1628,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>338192</v>
+        <v>186553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="N14" s="7">
-        <v>338192</v>
+        <v>186553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,39 +1677,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>452391</v>
+        <v>252633</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>452391</v>
+        <v>252633</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1692,13 +1734,13 @@
         <v>29894</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -1707,19 +1749,19 @@
         <v>29894</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1741,13 +1783,13 @@
         <v>106770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -1756,13 +1798,13 @@
         <v>106770</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1832,13 @@
         <v>136664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -1805,18 +1847,18 @@
         <v>136664</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1841,13 +1883,13 @@
         <v>28889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -1856,19 +1898,19 @@
         <v>28889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1890,13 +1932,13 @@
         <v>121685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -1905,13 +1947,13 @@
         <v>121685</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1981,13 @@
         <v>150574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>143</v>
@@ -1954,18 +1996,18 @@
         <v>150574</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1990,13 +2032,13 @@
         <v>104769</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -2005,19 +2047,19 @@
         <v>104769</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2039,13 +2081,13 @@
         <v>326247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>301</v>
@@ -2054,13 +2096,13 @@
         <v>326247</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2130,13 @@
         <v>431016</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>392</v>
@@ -2103,18 +2145,18 @@
         <v>431016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2139,13 +2181,13 @@
         <v>111949</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -2154,19 +2196,19 @@
         <v>111949</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2188,13 +2230,13 @@
         <v>406909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>374</v>
@@ -2203,13 +2245,13 @@
         <v>406909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2279,13 @@
         <v>518858</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>475</v>
@@ -2252,13 +2294,13 @@
         <v>518858</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2330,13 @@
         <v>517415</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>461</v>
@@ -2303,19 +2345,19 @@
         <v>517415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2334,31 +2376,31 @@
         <v>1606</v>
       </c>
       <c r="I29" s="7">
-        <v>1731609</v>
+        <v>1731610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>1606</v>
       </c>
       <c r="N29" s="7">
-        <v>1731609</v>
+        <v>1731610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,36 +2425,36 @@
         <v>2067</v>
       </c>
       <c r="I30" s="7">
-        <v>2249024</v>
+        <v>2249025</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>2067</v>
       </c>
       <c r="N30" s="7">
-        <v>2249024</v>
+        <v>2249025</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9C0832-D460-42AF-8B73-D2193C108CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10C1970-D85D-4F7A-9108-04A6686787BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2453,7 +2495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2573,13 +2615,13 @@
         <v>48847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2588,19 +2630,19 @@
         <v>48847</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2622,13 +2664,13 @@
         <v>150821</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
         <v>147</v>
@@ -2637,13 +2679,13 @@
         <v>150821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2713,13 @@
         <v>199668</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>192</v>
@@ -2686,18 +2728,18 @@
         <v>199668</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2722,13 +2764,13 @@
         <v>55528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -2737,19 +2779,19 @@
         <v>55528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2771,13 +2813,13 @@
         <v>324415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -2786,13 +2828,13 @@
         <v>324415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2862,13 @@
         <v>379943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>359</v>
@@ -2835,18 +2877,18 @@
         <v>379943</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2871,13 +2913,13 @@
         <v>12549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2886,19 +2928,19 @@
         <v>12549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2920,13 +2962,13 @@
         <v>235613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -2935,13 +2977,13 @@
         <v>235613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +3011,13 @@
         <v>248162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>242</v>
@@ -2984,18 +3026,18 @@
         <v>248162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3020,13 +3062,13 @@
         <v>31409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3035,19 +3077,19 @@
         <v>31409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3069,13 +3111,13 @@
         <v>233829</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -3084,13 +3126,13 @@
         <v>233829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3160,13 @@
         <v>265238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>246</v>
@@ -3133,18 +3175,18 @@
         <v>265238</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3169,13 +3211,13 @@
         <v>9860</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3184,19 +3226,19 @@
         <v>9860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3218,13 +3260,13 @@
         <v>74700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3233,13 +3275,13 @@
         <v>74700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3309,13 @@
         <v>84560</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3282,18 +3324,18 @@
         <v>84560</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3360,13 @@
         <v>15865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3333,19 +3375,19 @@
         <v>15865</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3367,13 +3409,13 @@
         <v>45936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -3382,13 +3424,13 @@
         <v>45936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3458,13 @@
         <v>61801</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>61</v>
@@ -3431,18 +3473,18 @@
         <v>61801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3467,13 +3509,13 @@
         <v>90594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3482,19 +3524,19 @@
         <v>90594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3516,13 +3558,13 @@
         <v>320425</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>299</v>
@@ -3531,13 +3573,13 @@
         <v>320425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3607,13 @@
         <v>411019</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>385</v>
@@ -3580,18 +3622,18 @@
         <v>411019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3616,13 +3658,13 @@
         <v>88387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -3631,19 +3673,19 @@
         <v>88387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3665,13 +3707,13 @@
         <v>414896</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>386</v>
@@ -3680,13 +3722,13 @@
         <v>414896</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3756,13 @@
         <v>503283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>465</v>
@@ -3729,13 +3771,13 @@
         <v>503283</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3807,13 @@
         <v>353039</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>329</v>
@@ -3780,19 +3822,19 @@
         <v>353039</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3814,13 +3856,13 @@
         <v>1800635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>1711</v>
@@ -3829,13 +3871,13 @@
         <v>1800635</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3905,13 @@
         <v>2153674</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>2040</v>
@@ -3878,18 +3920,18 @@
         <v>2153674</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20430FA2-15B5-49BF-BA63-56ABDA8FFDF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679E4794-F968-4249-9E97-1040FBCCA25E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3930,7 +3972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4047,37 +4089,37 @@
         <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>24873</v>
+        <v>26055</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>24873</v>
+        <v>26055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4096,31 +4138,31 @@
         <v>273</v>
       </c>
       <c r="I5" s="7">
-        <v>135064</v>
+        <v>142899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
       </c>
       <c r="N5" s="7">
-        <v>135064</v>
+        <v>142899</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,36 +4187,36 @@
         <v>323</v>
       </c>
       <c r="I6" s="7">
-        <v>159937</v>
+        <v>168954</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>323</v>
       </c>
       <c r="N6" s="7">
-        <v>159937</v>
+        <v>168954</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4196,37 +4238,37 @@
         <v>81</v>
       </c>
       <c r="I7" s="7">
-        <v>65084</v>
+        <v>60512</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>65084</v>
+        <v>60512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4245,31 +4287,31 @@
         <v>244</v>
       </c>
       <c r="I8" s="7">
-        <v>185414</v>
+        <v>172271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>244</v>
       </c>
       <c r="N8" s="7">
-        <v>185414</v>
+        <v>172271</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,36 +4336,36 @@
         <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>250498</v>
+        <v>232783</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>325</v>
       </c>
       <c r="N9" s="7">
-        <v>250498</v>
+        <v>232783</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4345,37 +4387,37 @@
         <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>28941</v>
+        <v>27072</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>28941</v>
+        <v>27072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4394,31 +4436,31 @@
         <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>137884</v>
+        <v>128651</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>215</v>
       </c>
       <c r="N11" s="7">
-        <v>137884</v>
+        <v>128651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,36 +4485,36 @@
         <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>166825</v>
+        <v>155723</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>255</v>
       </c>
       <c r="N12" s="7">
-        <v>166825</v>
+        <v>155723</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4494,37 +4536,37 @@
         <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>41244</v>
+        <v>38137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>41244</v>
+        <v>38137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4543,31 +4585,31 @@
         <v>251</v>
       </c>
       <c r="I14" s="7">
-        <v>186057</v>
+        <v>251949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
       </c>
       <c r="N14" s="7">
-        <v>186057</v>
+        <v>251949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,36 +4634,36 @@
         <v>316</v>
       </c>
       <c r="I15" s="7">
-        <v>227301</v>
+        <v>290086</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>316</v>
       </c>
       <c r="N15" s="7">
-        <v>227301</v>
+        <v>290086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4643,37 +4685,37 @@
         <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>16833</v>
+        <v>15389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>16833</v>
+        <v>15389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4692,31 +4734,31 @@
         <v>118</v>
       </c>
       <c r="I17" s="7">
-        <v>48047</v>
+        <v>43958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>48047</v>
+        <v>43958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,36 +4783,36 @@
         <v>156</v>
       </c>
       <c r="I18" s="7">
-        <v>64880</v>
+        <v>59347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>156</v>
       </c>
       <c r="N18" s="7">
-        <v>64880</v>
+        <v>59347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4792,37 +4834,37 @@
         <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>16967</v>
+        <v>15762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>16967</v>
+        <v>15762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4841,31 +4883,31 @@
         <v>139</v>
       </c>
       <c r="I20" s="7">
-        <v>75420</v>
+        <v>70342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
       </c>
       <c r="N20" s="7">
-        <v>75420</v>
+        <v>70342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,36 +4932,36 @@
         <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>92387</v>
+        <v>86104</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>168</v>
       </c>
       <c r="N21" s="7">
-        <v>92387</v>
+        <v>86104</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4941,37 +4983,37 @@
         <v>206</v>
       </c>
       <c r="I22" s="7">
-        <v>154011</v>
+        <v>143821</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
       </c>
       <c r="N22" s="7">
-        <v>154011</v>
+        <v>143821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -4990,31 +5032,31 @@
         <v>302</v>
       </c>
       <c r="I23" s="7">
-        <v>207530</v>
+        <v>193064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>302</v>
       </c>
       <c r="N23" s="7">
-        <v>207530</v>
+        <v>193064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,36 +5081,36 @@
         <v>508</v>
       </c>
       <c r="I24" s="7">
-        <v>361541</v>
+        <v>336885</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>508</v>
       </c>
       <c r="N24" s="7">
-        <v>361541</v>
+        <v>336885</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5090,37 +5132,37 @@
         <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>39603</v>
+        <v>33262</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
       </c>
       <c r="N25" s="7">
-        <v>39603</v>
+        <v>33262</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5139,31 +5181,31 @@
         <v>316</v>
       </c>
       <c r="I26" s="7">
-        <v>249663</v>
+        <v>207608</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>316</v>
       </c>
       <c r="N26" s="7">
-        <v>249663</v>
+        <v>207608</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,31 +5230,31 @@
         <v>367</v>
       </c>
       <c r="I27" s="7">
-        <v>289266</v>
+        <v>240870</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>367</v>
       </c>
       <c r="N27" s="7">
-        <v>289266</v>
+        <v>240870</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,37 +5281,37 @@
         <v>560</v>
       </c>
       <c r="I28" s="7">
-        <v>387556</v>
+        <v>360010</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>560</v>
       </c>
       <c r="N28" s="7">
-        <v>387556</v>
+        <v>360010</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -5288,31 +5330,31 @@
         <v>1858</v>
       </c>
       <c r="I29" s="7">
-        <v>1225078</v>
+        <v>1210742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>1858</v>
       </c>
       <c r="N29" s="7">
-        <v>1225078</v>
+        <v>1210742</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,36 +5379,36 @@
         <v>2418</v>
       </c>
       <c r="I30" s="7">
-        <v>1612634</v>
+        <v>1570752</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>2418</v>
       </c>
       <c r="N30" s="7">
-        <v>1612634</v>
+        <v>1570752</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
